--- a/文档备份/数据字典模板/4.DWD - 数据字典.xlsx
+++ b/文档备份/数据字典模板/4.DWD - 数据字典.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\数据字典模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D397C260-086C-4C65-90B7-8E008E15B382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7CF86-046F-4C8B-A4FB-0F9216C02B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="4002" sheetId="49" r:id="rId3"/>
     <sheet name="4003" sheetId="50" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="lian4" localSheetId="1">#REF!</definedName>
     <definedName name="lian4" localSheetId="2">#REF!</definedName>
@@ -198,9 +195,6 @@
     <t>表空间</t>
   </si>
   <si>
-    <t>索引</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -633,6 +627,9 @@
   </si>
   <si>
     <t>qy_desc</t>
+  </si>
+  <si>
+    <t>分区键</t>
   </si>
 </sst>
 </file>
@@ -994,14 +991,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,31 +1004,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1029,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1091,34 +1088,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="目录"/>
-      <sheetName val="3001"/>
-      <sheetName val="3002"/>
-      <sheetName val="3003"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>DIM</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1407,7 +1376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1433,7 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -1473,13 +1442,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>14</v>
@@ -1505,12 +1474,12 @@
     )</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -1519,13 +1488,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>14</v>
@@ -1551,12 +1520,12 @@
     )</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -1565,13 +1534,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>14</v>
@@ -1597,12 +1566,12 @@
     )</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>50</v>
+      <c r="A5" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -1611,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1633,12 +1602,12 @@
     )</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>51</v>
+      <c r="A6" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -1647,7 +1616,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1669,12 +1638,12 @@
     )</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>52</v>
+      <c r="A7" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -1683,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
@@ -1705,12 +1674,12 @@
     )</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>119</v>
+      <c r="A8" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
@@ -1719,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
@@ -1741,12 +1710,12 @@
     )</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>53</v>
+      <c r="A9" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -1755,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
@@ -1782,7 +1751,7 @@
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1791,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="9"/>
@@ -1818,7 +1787,7 @@
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -1827,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="9"/>
@@ -1854,7 +1823,7 @@
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -1863,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="9"/>
@@ -1890,7 +1859,7 @@
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -1899,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="9"/>
@@ -1926,7 +1895,7 @@
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -1935,7 +1904,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1962,7 +1931,7 @@
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1971,7 +1940,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
@@ -1998,7 +1967,7 @@
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
@@ -2007,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
@@ -2034,7 +2003,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
@@ -2043,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
@@ -2070,7 +2039,7 @@
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -2079,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
@@ -2106,7 +2075,7 @@
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
@@ -2115,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
@@ -2142,7 +2111,7 @@
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -2151,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="9"/>
@@ -2178,7 +2147,7 @@
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
@@ -2187,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="9"/>
@@ -2214,7 +2183,7 @@
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>12</v>
@@ -2223,7 +2192,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
@@ -2250,7 +2219,7 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>12</v>
@@ -2259,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="9"/>
@@ -2286,7 +2255,7 @@
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
@@ -2295,7 +2264,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2322,7 +2291,7 @@
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>12</v>
@@ -2331,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2358,7 +2327,7 @@
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>12</v>
@@ -2367,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2394,7 +2363,7 @@
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>12</v>
@@ -2403,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2430,7 +2399,7 @@
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>12</v>
@@ -2439,7 +2408,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2466,7 +2435,7 @@
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>12</v>
@@ -2475,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2502,7 +2471,7 @@
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>12</v>
@@ -2511,7 +2480,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2538,7 +2507,7 @@
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>12</v>
@@ -2547,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2574,7 +2543,7 @@
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>12</v>
@@ -2583,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2610,7 +2579,7 @@
     </row>
     <row r="33" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>12</v>
@@ -2619,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2646,7 +2615,7 @@
     </row>
     <row r="34" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -2655,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2682,7 +2651,7 @@
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>12</v>
@@ -2691,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2718,7 +2687,7 @@
     </row>
     <row r="36" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>12</v>
@@ -2727,7 +2696,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2754,7 +2723,7 @@
     </row>
     <row r="37" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>12</v>
@@ -2763,7 +2732,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2790,7 +2759,7 @@
     </row>
     <row r="38" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>12</v>
@@ -2799,7 +2768,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2826,7 +2795,7 @@
     </row>
     <row r="39" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>12</v>
@@ -2835,7 +2804,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -2862,7 +2831,7 @@
     </row>
     <row r="40" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>12</v>
@@ -2871,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2898,7 +2867,7 @@
     </row>
     <row r="41" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>12</v>
@@ -2907,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -2934,7 +2903,7 @@
     </row>
     <row r="42" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>12</v>
@@ -2943,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -2970,7 +2939,7 @@
     </row>
     <row r="43" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>12</v>
@@ -2979,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -3006,7 +2975,7 @@
     </row>
     <row r="44" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>12</v>
@@ -3015,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3042,7 +3011,7 @@
     </row>
     <row r="45" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>12</v>
@@ -3051,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3078,7 +3047,7 @@
     </row>
     <row r="46" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>12</v>
@@ -3087,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -3114,7 +3083,7 @@
     </row>
     <row r="47" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>12</v>
@@ -3123,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -3150,7 +3119,7 @@
     </row>
     <row r="48" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>12</v>
@@ -3159,7 +3128,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3186,7 +3155,7 @@
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>12</v>
@@ -3195,7 +3164,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3222,7 +3191,7 @@
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>12</v>
@@ -3231,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3258,7 +3227,7 @@
     </row>
     <row r="51" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>12</v>
@@ -3267,7 +3236,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3294,7 +3263,7 @@
     </row>
     <row r="52" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -3303,7 +3272,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3330,7 +3299,7 @@
     </row>
     <row r="53" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>12</v>
@@ -3339,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3366,7 +3335,7 @@
     </row>
     <row r="54" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>12</v>
@@ -3375,7 +3344,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3402,7 +3371,7 @@
     </row>
     <row r="55" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>12</v>
@@ -3411,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3438,7 +3407,7 @@
     </row>
     <row r="56" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>12</v>
@@ -3447,7 +3416,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3474,7 +3443,7 @@
     </row>
     <row r="57" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>12</v>
@@ -3483,7 +3452,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3510,7 +3479,7 @@
     </row>
     <row r="58" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>12</v>
@@ -3519,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -3546,7 +3515,7 @@
     </row>
     <row r="59" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>12</v>
@@ -3555,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -3582,7 +3551,7 @@
     </row>
     <row r="60" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>12</v>
@@ -3591,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -3618,7 +3587,7 @@
     </row>
     <row r="61" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>12</v>
@@ -3627,7 +3596,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -3654,7 +3623,7 @@
     </row>
     <row r="62" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>12</v>
@@ -3663,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -3690,7 +3659,7 @@
     </row>
     <row r="63" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>12</v>
@@ -3699,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -3726,7 +3695,7 @@
     </row>
     <row r="64" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>12</v>
@@ -3735,7 +3704,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -3762,7 +3731,7 @@
     </row>
     <row r="65" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>12</v>
@@ -3771,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -3798,7 +3767,7 @@
     </row>
     <row r="66" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>12</v>
@@ -3807,7 +3776,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -3834,7 +3803,7 @@
     </row>
     <row r="67" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>12</v>
@@ -3843,7 +3812,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -3870,7 +3839,7 @@
     </row>
     <row r="68" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>12</v>
@@ -3879,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -3906,7 +3875,7 @@
     </row>
     <row r="69" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -3915,7 +3884,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3942,7 +3911,7 @@
     </row>
     <row r="70" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>12</v>
@@ -3951,7 +3920,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -3978,7 +3947,7 @@
     </row>
     <row r="71" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>12</v>
@@ -3987,7 +3956,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -4014,7 +3983,7 @@
     </row>
     <row r="72" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>12</v>
@@ -4023,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -4090,315 +4059,315 @@
       <selection activeCell="B37" sqref="B37"/>
       <selection pane="topRight" activeCell="B37" sqref="B37"/>
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="32" customWidth="1"/>
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="str">
+      <c r="B1" s="33" t="str">
         <f>目录!E2</f>
         <v>dwd_day</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
-        <v>39</v>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="33" t="str">
         <f>目录!F2</f>
         <v>时间表</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="24" t="str">
         <f>LOWER(目录!D2)</f>
         <v>dwd</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="C8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>8</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>9</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="C15" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>7</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>8</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>9</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="G15" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4439,271 +4408,271 @@
       <selection activeCell="B37" sqref="B37"/>
       <selection pane="topRight" activeCell="B37" sqref="B37"/>
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="32" customWidth="1"/>
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="str">
+      <c r="B1" s="33" t="str">
         <f>目录!E3</f>
         <v>dwd_season</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
-        <v>39</v>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="33" t="str">
         <f>目录!F3</f>
         <v>季节表</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="24" t="str">
         <f>LOWER(目录!D3)</f>
         <v>dwd</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="C8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G9" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="G10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>7</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4749,240 +4718,240 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="39" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="40" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="32" customWidth="1"/>
     <col min="8" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25" t="str">
+      <c r="B1" s="33" t="str">
         <f>目录!E4</f>
         <v>dwd_brand</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26" t="s">
-        <v>39</v>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="33" t="str">
         <f>目录!F4</f>
         <v>品牌表</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="24" t="str">
         <f>LOWER(目录!D4)</f>
         <v>dwd</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="18" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="G11" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
